--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/Section2.4_Example_MS.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/Section2.4_Example_MS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ABE9328-B3F3-8544-8CD3-86313D8F5C96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0D97F8-18A8-444C-AD58-06CD2A9280BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -59,6 +59,9 @@
   <si>
     <t>Fees Earned</t>
   </si>
+  <si>
+    <t>③</t>
+  </si>
 </sst>
 </file>
 
@@ -67,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +95,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -182,6 +191,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,74 +213,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="Text Box 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0AA3003-CE97-4975-8E42-6C939454F6EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1866900" y="447675"/>
-          <a:ext cx="1438275" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>1. Take note of account. Find ledger account</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -320,19 +264,6 @@
           <a:pPr algn="l" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>4. Take note of the amount on the first line and the column it is in</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:schemeClr val="accent2">
@@ -404,7 +335,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>General Journal</a:t>
+            <a:t> Journal</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -421,15 +352,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>304801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -446,8 +377,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2219325" y="2209800"/>
-          <a:ext cx="1438275" cy="438150"/>
+          <a:off x="771525" y="2844801"/>
+          <a:ext cx="257175" cy="279399"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -470,17 +401,99 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
+            <a:rPr lang="en-GB" sz="1000">
+              <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>2. Enter date of Journal entry</a:t>
+            <a:t>②</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E63CC8-7761-41F5-92BE-EAECA0CE9424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5502275" y="2266950"/>
+          <a:ext cx="454025" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -499,22 +512,292 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2524125</xdr:colOff>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8DF23B-F798-444A-990C-307CFD311BAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1498600"/>
+          <a:ext cx="25400" cy="1727200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>930275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811BEFCE-6333-4405-BB2E-D97D15BA9DFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5603875" y="1438275"/>
+          <a:ext cx="9525" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>933452</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D2BADA-4C71-4EBC-AAE7-EC6FE71EA81D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5607052" y="2590800"/>
+          <a:ext cx="19048" cy="2425700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F03AAEC-6B2B-47C5-BEB4-8EEFE011589C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="1473200"/>
+          <a:ext cx="25400" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359C87C3-A7FE-4FF8-A534-35F65FF430F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="863600" y="3260725"/>
+          <a:ext cx="9525" cy="1654175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1339850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>279401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2606675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Text Box 1">
+        <xdr:cNvPr id="20" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF09E31F-9FB7-44EC-8D51-E16D90508ED1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F195A1BB-09E1-9E48-90F7-3CB1342C3103}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -524,8 +807,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3867150" y="2219325"/>
-          <a:ext cx="1438275" cy="438150"/>
+          <a:off x="3105150" y="2819401"/>
+          <a:ext cx="1266825" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -548,17 +831,95 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-IN" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>3. Leave the Item column blank </a:t>
+            <a:t>Ledgers</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F8E74F-EC69-6546-9F2C-2207C9A9BDA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="1739900" y="2444750"/>
+          <a:ext cx="381000" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -576,23 +937,77 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93680DE7-A131-0048-B114-9E793AE9B3E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="5397500"/>
+          <a:ext cx="9525" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Text Box 1">
+        <xdr:cNvPr id="35" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E63CC8-7761-41F5-92BE-EAECA0CE9424}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53275C64-5019-6C49-BC8A-28C8460C47ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -602,8 +1017,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5543550" y="2181225"/>
-          <a:ext cx="2266950" cy="647700"/>
+          <a:off x="733425" y="5232400"/>
+          <a:ext cx="561975" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -626,17 +1041,19 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-IN" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
+            <a:rPr lang="en-GB" sz="1000">
+              <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>5. Copy that amount to the same column in the ledger on the same line where you entered the date</a:t>
+            <a:t>②</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -654,23 +1071,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Text Box 1">
+        <xdr:cNvPr id="37" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F4A58E-D52A-4002-BCEE-B3F1317DB5A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97337FF5-C0F4-0C4F-8967-7EA61CC6F051}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -680,8 +1097,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5105400" y="4562474"/>
-          <a:ext cx="3143250" cy="723901"/>
+          <a:off x="7686675" y="4832350"/>
+          <a:ext cx="593725" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -700,81 +1117,47 @@
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-IN" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
+            <a:rPr lang="en-GB" sz="1000">
+              <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>6. Update the account’s running balance</a:t>
+            <a:t>⑤, </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1000" b="1">
+          <a:r>
+            <a:rPr lang="en-IN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>⑦</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:schemeClr val="accent2">
                 <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>a. Add 2 amount if both are of same type</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>b. If </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>no previous balance and the entry is a Credit, enter the same amount in the Credit balance column</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -783,34 +1166,117 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>757238</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>765175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ABC48A2-BF15-1D4C-91AB-5BAF67F3D127}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8728075" y="6724650"/>
+          <a:ext cx="593725" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>⑤, ⑥</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{701AFCA8-04C7-4B2A-B2C8-FC4C1A6C49A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CB32AE-3646-3547-AE87-347D80931135}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="1025" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2586038" y="885825"/>
-          <a:ext cx="338137" cy="428625"/>
+          <a:off x="2019300" y="1765300"/>
+          <a:ext cx="0" cy="3771900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -840,553 +1306,81 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8DF23B-F798-444A-990C-307CFD311BAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B241CC58-447F-234F-A55A-CCF99A2DD527}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3143250" y="1552575"/>
-          <a:ext cx="666750" cy="1266825"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>771527</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD48BDB8-4350-4526-8289-567092710B36}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4867275" y="838200"/>
-          <a:ext cx="9527" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811BEFCE-6333-4405-BB2E-D97D15BA9DFD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6076950" y="1609725"/>
-          <a:ext cx="9525" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Rectangle 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68D70DA8-0FAA-4952-8D5E-E1795AFA5D93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5543550" y="1295400"/>
-          <a:ext cx="514350" cy="257175"/>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="1930400" y="2711450"/>
+          <a:ext cx="381000" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>742951</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D2BADA-4C71-4EBC-AAE7-EC6FE71EA81D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6057900" y="2676525"/>
-          <a:ext cx="9526" cy="1571625"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1790700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1800225</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE89963-71A2-41F1-B97E-A0A8F9C63BB1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4572000" y="2514600"/>
-          <a:ext cx="9525" cy="1123950"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F03AAEC-6B2B-47C5-BEB4-8EEFE011589C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="1590675"/>
-          <a:ext cx="19050" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359C87C3-A7FE-4FF8-A534-35F65FF430F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1257300" y="2609850"/>
-          <a:ext cx="9525" cy="1638300"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09583DC8-37C8-4D4E-92B1-9EC8481DEC28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6486525" y="4343400"/>
-          <a:ext cx="0" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A233A5B-E6EF-49A8-91E6-BB1B8179F978}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6858000" y="5257800"/>
-          <a:ext cx="438150" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1692,7 +1686,7 @@
   <dimension ref="B6:G23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1742,79 +1736,81 @@
     <row r="9" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="7">
-        <v>42887</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9">
-        <v>8000</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9">
-        <v>8000</v>
-      </c>
-      <c r="G14" s="9"/>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
         <v>42887</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9">
-        <v>2000</v>
-      </c>
+      <c r="C15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="9">
+        <v>8000</v>
+      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="9">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
-        <v>42891</v>
+        <v>42887</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="9">
-        <v>800</v>
-      </c>
-      <c r="E16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
+        <v>2000</v>
+      </c>
       <c r="F16" s="9">
-        <v>6800</v>
+        <v>6000</v>
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9">
+        <v>800</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9">
+        <v>6800</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
     <row r="18" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1851,7 +1847,7 @@
       <c r="B22" s="7">
         <v>42891</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
         <v>800</v>
@@ -1871,7 +1867,7 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
     <mergeCell ref="B20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/Section2.4_Example_MS.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/Section2.4_Example_MS.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0D97F8-18A8-444C-AD58-06CD2A9280BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72C3FA6-F0AA-E846-A831-6A481BFC9157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -188,11 +188,11 @@
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,15 +1072,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
+      <xdr:colOff>803275</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1097,8 +1097,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7686675" y="4832350"/>
-          <a:ext cx="593725" cy="247650"/>
+          <a:off x="7661275" y="4489450"/>
+          <a:ext cx="238125" cy="196850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1127,28 +1127,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>⑤, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>⑦</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t> </a:t>
+            <a:t>⑤</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -1173,9 +1152,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1192,8 +1171,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8728075" y="6724650"/>
-          <a:ext cx="593725" cy="247650"/>
+          <a:off x="8728075" y="6089650"/>
+          <a:ext cx="530225" cy="260350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1368,6 +1347,80 @@
               <a:effectLst/>
             </a:rPr>
             <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>825501</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1016001</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA64EB4E-C86B-BB40-BF73-40A912BC4D30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7683501" y="4203700"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>⑦</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -1686,7 +1739,7 @@
   <dimension ref="B6:G23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1738,14 +1791,14 @@
     <row r="11" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
@@ -1771,7 +1824,7 @@
       <c r="B15" s="7">
         <v>42887</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="9">
@@ -1814,14 +1867,14 @@
     <row r="18" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
@@ -1847,7 +1900,9 @@
       <c r="B22" s="7">
         <v>42891</v>
       </c>
-      <c r="C22" s="11"/>
+      <c r="C22" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
         <v>800</v>
